--- a/biology/Botanique/Touroulia/Touroulia.xlsx
+++ b/biology/Botanique/Touroulia/Touroulia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Touroulia est un genre de plantes à fleurs de la famille des Ochnaceae (anciennement des Quiinaceae). Ce sont des arbres ou des arbustes originaires d'Amérique du sud, et dont l'espèce type est Touroulia guianensis Aubl..
 </t>
@@ -511,9 +523,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose le protologue suivant[1] : 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose le protologue suivant : 
 « TOUROULIA. (Tabula 194.) 
 CAL. Perianthium monophyllum, turbinatum, quinquedentatum ; denticulis ſubrotundis, acutis. Bracteæ geminæ oppoſitæ ad baſim.
 COR. Petala quinque, flava, ſubrotunda, concava, in orbem expanſa, calici intrà diviſuras inſerta. 
@@ -549,13 +563,15 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Touroulia compterait une 2 à 6 espèces.
-Selon GBIF       (11 avril 2022)[2] et World Flora Online (WFO)       (11 avril 2022)[3] :
+Selon GBIF       (11 avril 2022) et World Flora Online (WFO)       (11 avril 2022) :
 Touroulia amazonica Pires &amp; A.S.Foster
 Touroulia guianensis Aubl.
-Selon Tropicos                                           (11 avril 2022)[4] :
+Selon Tropicos                                           (11 avril 2022) :
 Touroulia amazonica Pires &amp; A.S. Foster, 1950
 Touroulia decastyla , 1889
 Touroulia guianensis Aubl., 1775
